--- a/results/I3_N5_M3_T45_C200_DepLowerLeft_s3_P6_res.xlsx
+++ b/results/I3_N5_M3_T45_C200_DepLowerLeft_s3_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>152.1629976553366</v>
+        <v>117.9143940269122</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46.22299765533656</v>
+        <v>43.91439402691221</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>105.94</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -747,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>34.22809649842574</v>
+        <v>30.33301651610694</v>
       </c>
     </row>
     <row r="8">
@@ -914,7 +914,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>40.91114969288709</v>
+        <v>37.01606971056828</v>
       </c>
     </row>
     <row r="9">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>65.71999999999964</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>59.43999999999964</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>69.37499999999963</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>64.17999999999964</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>63.18499999999963</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>85.68999999999978</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>96.85999999999979</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>81.12999999999978</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>89.87499999999977</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>86.53999999999978</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>107.2900000000001</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>101.3900000000002</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>108.6850000000001</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>102.8750000000001</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>102.8400000000001</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>61.69000000000029</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>62.66500000000029</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>66.29000000000029</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>64.7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>61.57500000000029</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>111.6950000000004</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>104.8850000000004</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>111.7350000000004</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>119.5</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>114.6850000000004</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>111.6950000000004</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>104.8850000000004</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>111.7350000000004</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>119.5</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>114.6850000000004</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>107.2900000000001</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>101.3900000000002</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>108.6850000000001</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>102.8750000000001</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>102.8400000000001</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42">
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>85.68999999999978</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43">
@@ -1469,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>96.85999999999979</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44">
@@ -1480,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>81.12999999999978</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>89.87499999999977</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>86.53999999999978</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1750,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1761,7 +1761,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1772,7 +1772,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1783,7 +1783,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1794,7 +1794,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1915,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>5.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1926,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>13.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1937,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>14.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1948,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1959,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>13.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
